--- a/output.xlsx
+++ b/output.xlsx
@@ -84,7 +84,7 @@
   <si>
     <t>{
 "result":
-[{"type":"评价","content": "瞧那么一句话，就能把故事的意思讲出来了，小朋友们真能干,"},
+[{"type":"评价","content": "瞧那么一句话，就能把故事的意思讲出来了，小朋友们真能干，"},
 {"type":"发起","content": "好，那我们来看看哦，他为什么什么树都没种成呢？"}],
 "compliance": "无"
 }</t>
@@ -115,17 +115,16 @@
   <si>
     <t>{
 "result":
-[{"type":"其它","content": "哎每天对呀，就说明这个猴子怎么样"}],
-"compliance": "无"
-} 
-   _x000D_
- _x000D_</t>
+[{"type":"其它","content": "哎每天对呀，"},
+{"type":"发起","content": "就说明这个猴子怎么样"}],
+"compliance": "高"
+}</t>
   </si>
   <si>
     <t>{
 "result":
 [{"type":"评价","content": "很细心,"},
-{"type":"讲解","content": "还有呢，他每天都去浇，天天都去浇水，施肥说明他怎么样"}],
+{"type":"讲解","content": "还有呢，他每天都去浇，天天都去浇水, 施肥说明他怎么样"}],
 "compliance": "中"
 }</t>
   </si>
@@ -134,8 +133,7 @@
 "result":
 [{"type":"讲解","content": "英语非常勤劳，"},
 {"type":"讲解","content":"猴子是不是很好，"},
-{"type":"发起","content": "你们看，"}]
-,
+{"type":"其它","content":"你们看，"}],
 "compliance": "无"
 }</t>
   </si>
@@ -143,7 +141,7 @@
     <t>{
 "result":
 [{"type":"发起","content": "这个猴子种树啊，它有一个动作的过程，你找到了动作的吗？它有哪些动作？"},
-{"type":"其它","content": "好，那就好了，"}],
+{"type":"其它","content": "好，那就好了,"}],
 "compliance": "高"
 }</t>
   </si>
@@ -157,8 +155,7 @@
   <si>
     <t>{
 "result":
-[{"type":"其它","content": "所以先说重好的，然后呢,"}]
-,
+[{"type":"其它","content": "所以先说重好的，然后呢，"}],
 "compliance": "低"
 }</t>
   </si>

--- a/output.xlsx
+++ b/output.xlsx
@@ -84,7 +84,7 @@
   <si>
     <t>{
 "result":
-[{"type":"评价","content": "瞧那么一句话，就能把故事的意思讲出来了，小朋友们真能干，"},
+[{"type":"评价","content": "瞧那么一句话，就能把故事的意思讲出来了，小朋友们真能干,"},
 {"type":"发起","content": "好，那我们来看看哦，他为什么什么树都没种成呢？"}],
 "compliance": "无"
 }</t>
@@ -124,7 +124,7 @@
     <t>{
 "result":
 [{"type":"评价","content": "很细心,"},
-{"type":"讲解","content": "还有呢，他每天都去浇，天天都去浇水, 施肥说明他怎么样"}],
+{"type":"讲解","content": "还有呢，他每天都去浇，天天都去浇水，施肥说明他怎么样"}],
 "compliance": "中"
 }</t>
   </si>
@@ -141,7 +141,7 @@
     <t>{
 "result":
 [{"type":"发起","content": "这个猴子种树啊，它有一个动作的过程，你找到了动作的吗？它有哪些动作？"},
-{"type":"其它","content": "好，那就好了,"}],
+{"type":"其它","content": "好，那就好了，"}],
 "compliance": "高"
 }</t>
   </si>
@@ -155,7 +155,7 @@
   <si>
     <t>{
 "result":
-[{"type":"其它","content": "所以先说重好的，然后呢，"}],
+[{"type":"其它","content": "所以先说重好的，然后呢"}],
 "compliance": "低"
 }</t>
   </si>
